--- a/tabs/Table - % Trust Institutions, BR.xlsx
+++ b/tabs/Table - % Trust Institutions, BR.xlsx
@@ -393,25 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -436,6 +418,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -750,14 +752,14 @@
         <v>40</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -767,14 +769,14 @@
         <v>41</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -784,3850 +786,3861 @@
         <v>39</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>722</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="8">
         <v>40.5</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="8">
         <v>399</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="8">
         <v>34.9</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="8">
         <v>438</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="8">
         <v>29.2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="8">
         <v>334</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="8">
         <v>22.5</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="8">
         <v>342</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="8">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>162</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="8">
         <v>9.1</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="8">
         <v>156</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="8">
         <v>13.6</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="8">
         <v>124</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="8">
         <v>181</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="8">
         <v>12.2</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="8">
         <v>233</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="8">
         <v>13.2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>287</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="8">
         <v>134</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="8">
         <v>11.7</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="8">
         <v>213</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="8">
         <v>14.2</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>252</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="8">
         <v>17</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <v>306</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="8">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <v>610</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="10">
         <v>34.200000000000003</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <v>446</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>39</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <v>720</v>
       </c>
-      <c r="H10" s="16">
-        <v>48</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="H10" s="10">
+        <v>48</v>
+      </c>
+      <c r="I10" s="10">
         <v>706</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="10">
         <v>47.5</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="10">
         <v>837</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="10">
         <v>47.5</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="17"/>
+      <c r="K12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>571</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>32.1</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>348</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>30.4</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>371</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>24.7</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>292</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>399</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>22.7</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>218</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>12.2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>165</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>14.4</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>136</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>9.1</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>250</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>16.8</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>284</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>16.100000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>372</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>20.9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>156</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>13.6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>314</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>20.9</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>289</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>331</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>18.8</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="11">
         <v>614</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <v>34.5</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>452</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <v>39.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <v>666</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="11">
         <v>44.4</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="11">
         <v>580</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="11">
         <v>39</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="11">
         <v>668</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="11">
         <v>37.9</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>643</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>36.1</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>182</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>412</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>23.1</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="11">
         <v>543</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="11">
         <v>30.5</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8" t="s">
+      <c r="J26" s="17"/>
+      <c r="K26" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="12" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>294</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>16.5</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>183</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>16</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>99</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>6.6</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>107</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>7.2</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>102</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>5.8</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>321</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>18</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>205</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>310</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>20.7</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>384</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>25.8</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>577</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>32.700000000000003</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>483</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>27.1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>235</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>20.6</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>533</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>35.5</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>403</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>27.1</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>468</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>26.6</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="11">
         <v>676</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <v>38</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <v>513</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="11">
         <v>44.9</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="11">
         <v>547</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="11">
         <v>36.5</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="11">
         <v>575</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="11">
         <v>38.700000000000003</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="11">
         <v>554</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="11">
         <v>31.4</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8" t="s">
+      <c r="J33" s="17"/>
+      <c r="K33" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="9"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="12" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>242</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>13.6</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>146</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>12.8</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>120</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>8</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>98</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>6.6</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>106</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>397</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>22.3</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>292</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>25.5</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>316</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>21.1</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>464</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>31.2</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>604</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>34.299999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>526</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>29.5</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>209</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>18.3</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>490</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>32.700000000000003</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>384</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>25.8</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>431</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>24.5</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="11">
         <v>608</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="11">
         <v>34.1</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
         <v>470</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <v>41.1</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="11">
         <v>553</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="11">
         <v>36.9</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="11">
         <v>462</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="11">
         <v>31.1</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="11">
         <v>466</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="11">
         <v>26.5</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="17"/>
+      <c r="I40" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="8" t="s">
+      <c r="J40" s="17"/>
+      <c r="K40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="19"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41" s="12" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>224</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>12.6</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>107</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>9.4</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>115</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>7.7</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>97</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>6.5</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>202</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>11.5</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>554</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>31.1</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>389</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>34</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>365</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>24.3</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>441</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>29.7</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>372</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>21.1</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>550</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>30.9</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>232</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>20.3</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>457</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>30.5</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>370</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>24.9</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="4">
         <v>412</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>23.4</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="11">
         <v>453</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="11">
         <v>25.4</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="11">
         <v>406</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="11">
         <v>35.5</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="11">
         <v>552</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="11">
         <v>36.799999999999997</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="11">
         <v>572</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="11">
         <v>38.5</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="11">
         <v>752</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="11">
         <v>42.7</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7" t="s">
+      <c r="H47" s="17"/>
+      <c r="I47" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="8" t="s">
+      <c r="J47" s="17"/>
+      <c r="K47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="9"/>
+      <c r="L47" s="19"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="12" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>107</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>6</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>55</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>4.8</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>40</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>2.7</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>18</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>1.2</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>22</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>1.2</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>887</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>49.8</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>518</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>45.3</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>583</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <v>38.9</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="4">
         <v>758</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>51</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="4">
         <v>1071</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>60.8</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>462</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>25.9</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>232</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>20.3</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>528</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <v>35.200000000000003</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="4">
         <v>385</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>25.9</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="4">
         <v>363</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>20.6</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="11">
         <v>324</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="11">
         <v>18.2</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="11">
         <v>325</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="11">
         <v>28.4</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="11">
         <v>328</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="11">
         <v>21.9</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="11">
         <v>293</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="11">
         <v>19.7</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="11">
         <v>254</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="11">
         <v>14.4</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7" t="s">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="8" t="s">
+      <c r="J54" s="17"/>
+      <c r="K54" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L54" s="9"/>
+      <c r="L54" s="19"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" s="12" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>233</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>13.1</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>159</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>13.9</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>126</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>8.4</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="4">
         <v>104</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>7</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>141</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>370</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>20.8</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>213</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>222</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>14.8</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="4">
         <v>317</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>21.3</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>392</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>22.2</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>538</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>30.2</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>251</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>22</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>481</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>32.1</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="4">
         <v>402</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>27.1</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="4">
         <v>473</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>26.8</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="11">
         <v>636</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="11">
         <v>35.700000000000003</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="11">
         <v>511</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="11">
         <v>44.7</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="11">
         <v>648</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="11">
         <v>43.2</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="11">
         <v>651</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="11">
         <v>43.8</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="11">
         <v>719</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="11">
         <v>40.799999999999997</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>206</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>11.6</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>764</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>42.9</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>449</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>25.2</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="11">
         <v>361</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="11">
         <v>20.3</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="7" t="s">
+      <c r="D68" s="16"/>
+      <c r="E68" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7" t="s">
+      <c r="H68" s="17"/>
+      <c r="I68" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="8" t="s">
+      <c r="J68" s="17"/>
+      <c r="K68" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L68" s="9"/>
+      <c r="L68" s="19"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" s="12" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>185</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>10.4</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>120</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>10.5</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>65</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>4.3</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="4">
         <v>67</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>4.5</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>71</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>613</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>34.4</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>231</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <v>20.2</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>321</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>21.4</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="4">
         <v>426</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>28.7</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="4">
         <v>635</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>449</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>25.2</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>258</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>22.6</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>549</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="4">
         <v>36.6</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="4">
         <v>447</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="4">
         <v>30.1</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>472</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="4">
         <v>26.8</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="11">
         <v>459</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="11">
         <v>25.7</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="11">
         <v>531</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="11">
         <v>46.5</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="11">
         <v>557</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="11">
         <v>37.1</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="11">
         <v>538</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="11">
         <v>36.200000000000003</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K73" s="11">
         <v>555</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="11">
         <v>31.5</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="8" t="s">
+      <c r="H75" s="17"/>
+      <c r="I75" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
-      <c r="C76" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>124</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>10.8</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>145</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <v>76</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="4">
         <v>50</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="4">
         <v>2.8</v>
       </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>360</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>31.5</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>322</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <v>21.5</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <v>468</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <v>31.5</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="4">
         <v>941</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <v>53.4</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>221</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>19.3</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>477</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <v>31.8</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="4">
         <v>394</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <v>26.5</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="4">
         <v>382</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="4">
         <v>21.7</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="11">
         <v>428</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="11">
         <v>37.4</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="11">
         <v>543</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="11">
         <v>36.200000000000003</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="11">
         <v>534</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="11">
         <v>35.9</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="11">
         <v>348</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J80" s="11">
         <v>19.7</v>
       </c>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7" t="s">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="8" t="s">
+      <c r="H82" s="17"/>
+      <c r="I82" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="10"/>
-      <c r="C83" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>43</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>3.8</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>27</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <v>1.8</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <v>16</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I84" s="4">
         <v>19</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>544</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>47.6</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>687</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>45.8</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <v>870</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>58.6</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="4">
         <v>1171</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="4">
         <v>66.5</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>221</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>19.3</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>485</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>364</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>24.5</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="4">
         <v>318</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>18</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="11">
         <v>326</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="11">
         <v>28.5</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="11">
         <v>286</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="11">
         <v>19.100000000000001</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="11">
         <v>220</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="11">
         <v>14.8</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="11">
         <v>219</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="11">
         <v>12.4</v>
       </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="7" t="s">
+      <c r="D89" s="16"/>
+      <c r="E89" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7" t="s">
+      <c r="F89" s="17"/>
+      <c r="G89" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7" t="s">
+      <c r="H89" s="17"/>
+      <c r="I89" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J89" s="7"/>
-      <c r="K89" s="8" t="s">
+      <c r="J89" s="17"/>
+      <c r="K89" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L89" s="9"/>
+      <c r="L89" s="19"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="10"/>
-      <c r="C90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L90" s="12" t="s">
+      <c r="B90" s="15"/>
+      <c r="C90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L90" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>330</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>18.5</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>216</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <v>146</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="4">
         <v>149</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="4">
         <v>10</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="4">
         <v>134</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="4">
         <v>7.6</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>302</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>17</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>163</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <v>14.3</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="4">
         <v>164</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="4">
         <v>10.9</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I92" s="4">
         <v>203</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="4">
         <v>13.7</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="4">
         <v>324</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="4">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>446</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>25</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>198</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <v>17.3</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <v>464</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <v>30.9</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="4">
         <v>377</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="4">
         <v>25.4</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="4">
         <v>407</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="4">
         <v>23.1</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="11">
         <v>696</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="11">
         <v>39.1</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="11">
         <v>549</v>
       </c>
-      <c r="F94" s="17">
-        <v>48</v>
-      </c>
-      <c r="G94" s="17">
+      <c r="F94" s="11">
+        <v>48</v>
+      </c>
+      <c r="G94" s="11">
         <v>707</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="11">
         <v>47.1</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="11">
         <v>720</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="11">
         <v>48.5</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K94" s="11">
         <v>788</v>
       </c>
-      <c r="L94" s="17">
+      <c r="L94" s="11">
         <v>44.7</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7" t="s">
+      <c r="F96" s="17"/>
+      <c r="G96" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="17"/>
+      <c r="I96" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="10"/>
-      <c r="C97" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>445</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>38.9</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>303</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <v>20.2</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="4">
         <v>214</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <v>14.4</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98" s="4">
         <v>272</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="4">
         <v>15.4</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>88</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>7.7</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>101</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <v>6.7</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="4">
         <v>190</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="4">
         <v>12.8</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="4">
         <v>231</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="4">
         <v>13.1</v>
       </c>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>133</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>11.6</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>370</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="4">
         <v>24.7</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="4">
         <v>328</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="4">
         <v>22.1</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100" s="4">
         <v>356</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="4">
         <v>20.2</v>
       </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="11">
         <v>450</v>
       </c>
-      <c r="D101" s="17">
+      <c r="D101" s="11">
         <v>39.4</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="11">
         <v>697</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="11">
         <v>46.5</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="11">
         <v>699</v>
       </c>
-      <c r="H101" s="17">
-        <v>47</v>
-      </c>
-      <c r="I101" s="17">
+      <c r="H101" s="11">
+        <v>47</v>
+      </c>
+      <c r="I101" s="11">
         <v>719</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J101" s="11">
         <v>40.799999999999997</v>
       </c>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="13"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7" t="s">
+      <c r="F103" s="17"/>
+      <c r="G103" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="8" t="s">
+      <c r="H103" s="17"/>
+      <c r="I103" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="10"/>
-      <c r="C104" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>301</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>26.3</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>277</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <v>18.5</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="4">
         <v>204</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="4">
         <v>13.7</v>
       </c>
-      <c r="I105" s="5">
+      <c r="I105" s="4">
         <v>292</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>184</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>115</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="4">
         <v>7.7</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="4">
         <v>199</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="4">
         <v>13.4</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="4">
         <v>191</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="4">
         <v>10.8</v>
       </c>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>158</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>13.8</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4">
         <v>380</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="4">
         <v>25.3</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="4">
         <v>292</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="4">
         <v>19.7</v>
       </c>
-      <c r="I107" s="5">
+      <c r="I107" s="4">
         <v>304</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="4">
         <v>17.3</v>
       </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="11">
         <v>456</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="11">
         <v>39.9</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="11">
         <v>689</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="11">
         <v>45.9</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="11">
         <v>703</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="11">
         <v>47.3</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="11">
         <v>724</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="11">
         <v>41.1</v>
       </c>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="13"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="7" t="s">
+      <c r="D110" s="16"/>
+      <c r="E110" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7" t="s">
+      <c r="F110" s="17"/>
+      <c r="G110" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7" t="s">
+      <c r="H110" s="17"/>
+      <c r="I110" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="8" t="s">
+      <c r="J110" s="17"/>
+      <c r="K110" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L110" s="9"/>
+      <c r="L110" s="19"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="10"/>
-      <c r="C111" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J111" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K111" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L111" s="12" t="s">
+      <c r="B111" s="15"/>
+      <c r="C111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L111" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>343</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>19.2</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>199</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="4">
         <v>171</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="4">
         <v>11.4</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="4">
         <v>161</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="4">
         <v>10.8</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112" s="4">
         <v>208</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L112" s="4">
         <v>11.8</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>488</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>27.4</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>271</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <v>23.7</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="4">
         <v>284</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="I113" s="5">
+      <c r="I113" s="4">
         <v>360</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="4">
         <v>24.2</v>
       </c>
-      <c r="K113" s="5">
+      <c r="K113" s="4">
         <v>408</v>
       </c>
-      <c r="L113" s="5">
+      <c r="L113" s="4">
         <v>23.2</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>499</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>28</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>242</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <v>21.2</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="4">
         <v>471</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <v>31.4</v>
       </c>
-      <c r="I114" s="5">
+      <c r="I114" s="4">
         <v>369</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="4">
         <v>24.8</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114" s="4">
         <v>404</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114" s="4">
         <v>22.9</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="11">
         <v>446</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="11">
         <v>25</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="11">
         <v>427</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="11">
         <v>37.4</v>
       </c>
-      <c r="G115" s="17">
+      <c r="G115" s="11">
         <v>569</v>
       </c>
-      <c r="H115" s="17">
+      <c r="H115" s="11">
         <v>37.9</v>
       </c>
-      <c r="I115" s="17">
+      <c r="I115" s="11">
         <v>591</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J115" s="11">
         <v>39.799999999999997</v>
       </c>
-      <c r="K115" s="17">
+      <c r="K115" s="11">
         <v>678</v>
       </c>
-      <c r="L115" s="17">
+      <c r="L115" s="11">
         <v>38.5</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="13"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7" t="s">
+      <c r="D117" s="17"/>
+      <c r="E117" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="8" t="s">
+      <c r="H117" s="17"/>
+      <c r="I117" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B118" s="10"/>
-      <c r="C118" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J118" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>186</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>16.3</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>94</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="4">
         <v>6.3</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="4">
         <v>45</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="4">
         <v>3</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="4">
         <v>55</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="4">
         <v>3.1</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>191</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>16.7</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>317</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="4">
         <v>21.1</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="4">
         <v>375</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="4">
         <v>25.2</v>
       </c>
-      <c r="I120" s="5">
+      <c r="I120" s="4">
         <v>347</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="4">
         <v>19.7</v>
       </c>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>165</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>14.4</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>453</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="4">
         <v>30.2</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="4">
         <v>293</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="4">
         <v>19.7</v>
       </c>
-      <c r="I121" s="5">
+      <c r="I121" s="4">
         <v>289</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="11">
         <v>471</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D122" s="11">
         <v>41.2</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="11">
         <v>505</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="11">
         <v>33.700000000000003</v>
       </c>
-      <c r="G122" s="17">
+      <c r="G122" s="11">
         <v>400</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="11">
         <v>26.9</v>
       </c>
-      <c r="I122" s="17">
+      <c r="I122" s="11">
         <v>462</v>
       </c>
-      <c r="J122" s="17">
+      <c r="J122" s="11">
         <v>26.2</v>
       </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B123" s="13"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7" t="s">
+      <c r="D124" s="17"/>
+      <c r="E124" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8" t="s">
+      <c r="F124" s="17"/>
+      <c r="G124" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="10"/>
-      <c r="C125" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>302</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="4">
         <v>200</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <v>13.5</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="4">
         <v>340</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="4">
         <v>19.3</v>
       </c>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>119</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>7.9</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4">
         <v>201</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <v>13.5</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="4">
         <v>203</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="4">
         <v>11.5</v>
       </c>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>371</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>24.7</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <v>352</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <v>23.7</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <v>345</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="11">
         <v>682</v>
       </c>
-      <c r="D129" s="17">
+      <c r="D129" s="11">
         <v>45.5</v>
       </c>
-      <c r="E129" s="17">
+      <c r="E129" s="11">
         <v>683</v>
       </c>
-      <c r="F129" s="17">
+      <c r="F129" s="11">
         <v>46</v>
       </c>
-      <c r="G129" s="17">
+      <c r="G129" s="11">
         <v>751</v>
       </c>
-      <c r="H129" s="17">
+      <c r="H129" s="11">
         <v>42.6</v>
       </c>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="13"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="8" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B132" s="10"/>
-      <c r="C132" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <v>159</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>10.7</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="4">
         <v>208</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="4">
         <v>11.8</v>
       </c>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <v>328</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>22.1</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="4">
         <v>419</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="4">
         <v>23.8</v>
       </c>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <v>414</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <v>27.9</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="4">
         <v>401</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="4">
         <v>22.8</v>
       </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="11">
         <v>576</v>
       </c>
-      <c r="D136" s="17">
+      <c r="D136" s="11">
         <v>38.799999999999997</v>
       </c>
-      <c r="E136" s="17">
+      <c r="E136" s="11">
         <v>673</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="11">
         <v>38.200000000000003</v>
       </c>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="8" t="s">
+      <c r="D138" s="17"/>
+      <c r="E138" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B139" s="10"/>
-      <c r="C139" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>364</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>24.5</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="4">
         <v>469</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="4">
         <v>26.6</v>
       </c>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <v>130</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="4">
         <v>135</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="4">
         <v>7.7</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <v>229</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>15.4</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="4">
         <v>256</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="4">
         <v>14.5</v>
       </c>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C143" s="17">
+      <c r="C143" s="11">
         <v>722</v>
       </c>
-      <c r="D143" s="17">
+      <c r="D143" s="11">
         <v>48.6</v>
       </c>
-      <c r="E143" s="17">
+      <c r="E143" s="11">
         <v>788</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="11">
         <v>44.7</v>
       </c>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C61:D61"/>
@@ -4644,53 +4657,42 @@
     <mergeCell ref="G89:H89"/>
     <mergeCell ref="I89:J89"/>
     <mergeCell ref="K89:L89"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
